--- a/resources/Chart Setting.xlsx
+++ b/resources/Chart Setting.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="10811"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/apple/Documents/GitHub/AbdulazizNahas/resources/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aamna\Documents\AbdulazizNahas\AbdulazizNahas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{49F90E9C-D2C7-D04A-ABD0-203E1C46435B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F890173C-E987-4A5F-9CF3-0F766A6AC913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16460" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="117" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="136" uniqueCount="55">
   <si>
     <t>Stock</t>
   </si>
@@ -79,73 +79,121 @@
     <t>ORCL</t>
   </si>
   <si>
+    <t>BTCUSD</t>
+  </si>
+  <si>
+    <t>BTCUSDT.P</t>
+  </si>
+  <si>
     <t>Chart Time Frame in Hours</t>
   </si>
   <si>
+    <t>Algorithmic Decipher - T3S Period</t>
+  </si>
+  <si>
+    <t>Algorithmic Decipher - T3S Type</t>
+  </si>
+  <si>
+    <t>New</t>
+  </si>
+  <si>
+    <t>Pivot High Low Points - Left and Right Bars</t>
+  </si>
+  <si>
+    <t>RSHVB - Source</t>
+  </si>
+  <si>
+    <t>HAB Trend Extreme</t>
+  </si>
+  <si>
+    <t>RSHVB - Time Frame in Hours</t>
+  </si>
+  <si>
+    <t>JFPCCI - Source</t>
+  </si>
+  <si>
+    <t>Open</t>
+  </si>
+  <si>
+    <t>T3V - Source</t>
+  </si>
+  <si>
+    <t>HAB High</t>
+  </si>
+  <si>
+    <t>Timer to next analysis</t>
+  </si>
+  <si>
+    <t>3 hours</t>
+  </si>
+  <si>
+    <t>3 minutes</t>
+  </si>
+  <si>
     <t>6 hours</t>
   </si>
   <si>
-    <t>Algorithmic Decipher - T3S Period</t>
-  </si>
-  <si>
-    <t>More Values...</t>
-  </si>
-  <si>
-    <t>Algorithmic Decipher - T3S Type</t>
-  </si>
-  <si>
-    <t>New</t>
-  </si>
-  <si>
-    <t>Checkasdasd</t>
-  </si>
-  <si>
-    <t>Original</t>
-  </si>
-  <si>
-    <t>Pivot High Low Points - Left and Right Bars</t>
-  </si>
-  <si>
-    <t>RSHVB - Source</t>
-  </si>
-  <si>
-    <t>HAB Trend Extreme</t>
-  </si>
-  <si>
-    <t>HAB asdasd Extreme</t>
-  </si>
-  <si>
-    <t>RSHVB - Time Frame in Hours</t>
-  </si>
-  <si>
-    <t>JFPCCI - Source</t>
-  </si>
-  <si>
-    <t>Open</t>
-  </si>
-  <si>
-    <t>T3V - Source</t>
-  </si>
-  <si>
-    <t>HAB High</t>
-  </si>
-  <si>
-    <t>HABasasd High</t>
-  </si>
-  <si>
-    <t>More Values</t>
-  </si>
-  <si>
-    <t>BTCUSD</t>
-  </si>
-  <si>
-    <t>BTCUSDT.P</t>
+    <t>12 hours</t>
+  </si>
+  <si>
+    <t>Start date filter on the extracted data</t>
+  </si>
+  <si>
+    <t>7 hours</t>
+  </si>
+  <si>
+    <t>8 hours</t>
+  </si>
+  <si>
+    <t>9 hours</t>
+  </si>
+  <si>
+    <t>10 hours</t>
+  </si>
+  <si>
+    <t>11 hours</t>
+  </si>
+  <si>
+    <t>13 hours</t>
+  </si>
+  <si>
+    <t>14 hours</t>
+  </si>
+  <si>
+    <t>15 hours</t>
+  </si>
+  <si>
+    <t>16 hours</t>
+  </si>
+  <si>
+    <t>17 hours</t>
+  </si>
+  <si>
+    <t>18 hours</t>
+  </si>
+  <si>
+    <t>19 hours</t>
+  </si>
+  <si>
+    <t>20 hours</t>
+  </si>
+  <si>
+    <t>21 hours</t>
+  </si>
+  <si>
+    <t>3 seconds</t>
+  </si>
+  <si>
+    <t>5 hours</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="yyyy\-mm\-dd\ hh:mm:ss"/>
+  </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -158,13 +206,12 @@
       <b/>
       <sz val="11"/>
       <name val="Calibri"/>
-      <family val="2"/>
     </font>
     <font>
-      <b/>
-      <sz val="11"/>
+      <sz val="8"/>
       <name val="Calibri"/>
       <family val="2"/>
+      <scheme val="minor"/>
     </font>
   </fonts>
   <fills count="2">
@@ -207,9 +254,7 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -512,15 +557,20 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:V9"/>
+  <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="W8" sqref="W8"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="U10" sqref="U10"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
+  <cols>
+    <col min="1" max="1" width="33.9453125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="17.41796875" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -578,76 +628,76 @@
       <c r="S1" s="1" t="s">
         <v>18</v>
       </c>
-      <c r="T1" s="2" t="s">
-        <v>38</v>
+      <c r="T1" s="1" t="s">
+        <v>19</v>
       </c>
       <c r="U1" s="1">
         <v>1120</v>
       </c>
       <c r="V1" s="1" t="s">
-        <v>39</v>
+        <v>20</v>
       </c>
     </row>
-    <row r="2" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="2" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A2" t="s">
-        <v>19</v>
+        <v>21</v>
       </c>
       <c r="B2">
         <v>48</v>
       </c>
       <c r="C2">
-        <v>3</v>
+        <v>48</v>
       </c>
       <c r="D2">
         <v>48</v>
       </c>
       <c r="E2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="F2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="G2">
-        <v>42</v>
-      </c>
-      <c r="H2" t="s">
-        <v>20</v>
+        <v>48</v>
+      </c>
+      <c r="H2">
+        <v>48</v>
       </c>
       <c r="I2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="J2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="K2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="L2">
-        <v>42</v>
+        <v>48</v>
       </c>
       <c r="M2">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="N2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="O2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="P2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="Q2">
-        <v>72</v>
+        <v>48</v>
       </c>
       <c r="R2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="S2">
-        <v>24</v>
+        <v>48</v>
       </c>
       <c r="T2">
-        <v>1</v>
+        <v>48</v>
       </c>
       <c r="U2">
         <v>48</v>
@@ -656,66 +706,66 @@
         <v>48</v>
       </c>
     </row>
-    <row r="3" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="3" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A3" t="s">
-        <v>21</v>
+        <v>22</v>
       </c>
       <c r="B3">
         <v>3</v>
       </c>
       <c r="C3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="D3">
-        <v>23</v>
+        <v>3</v>
       </c>
       <c r="E3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="F3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="G3">
         <v>3</v>
       </c>
-      <c r="H3" t="s">
-        <v>22</v>
+      <c r="H3">
+        <v>3</v>
       </c>
       <c r="I3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="J3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="K3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="L3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="M3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="N3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="O3">
         <v>3</v>
       </c>
       <c r="P3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="Q3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="R3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="S3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="T3">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="U3">
         <v>3</v>
@@ -724,7 +774,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="4" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A4" t="s">
         <v>23</v>
       </c>
@@ -735,66 +785,66 @@
         <v>24</v>
       </c>
       <c r="D4" t="s">
+        <v>24</v>
+      </c>
+      <c r="E4" t="s">
+        <v>24</v>
+      </c>
+      <c r="F4" t="s">
+        <v>24</v>
+      </c>
+      <c r="G4" t="s">
+        <v>24</v>
+      </c>
+      <c r="H4" t="s">
+        <v>24</v>
+      </c>
+      <c r="I4" t="s">
+        <v>24</v>
+      </c>
+      <c r="J4" t="s">
+        <v>24</v>
+      </c>
+      <c r="K4" t="s">
+        <v>24</v>
+      </c>
+      <c r="L4" t="s">
+        <v>24</v>
+      </c>
+      <c r="M4" t="s">
+        <v>24</v>
+      </c>
+      <c r="N4" t="s">
+        <v>24</v>
+      </c>
+      <c r="O4" t="s">
+        <v>24</v>
+      </c>
+      <c r="P4" t="s">
+        <v>24</v>
+      </c>
+      <c r="Q4" t="s">
+        <v>24</v>
+      </c>
+      <c r="R4" t="s">
+        <v>24</v>
+      </c>
+      <c r="S4" t="s">
+        <v>24</v>
+      </c>
+      <c r="T4" t="s">
+        <v>24</v>
+      </c>
+      <c r="U4" t="s">
+        <v>24</v>
+      </c>
+      <c r="V4" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="5" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A5" t="s">
         <v>25</v>
-      </c>
-      <c r="E4" t="s">
-        <v>26</v>
-      </c>
-      <c r="F4" t="s">
-        <v>24</v>
-      </c>
-      <c r="G4" t="s">
-        <v>24</v>
-      </c>
-      <c r="H4" t="s">
-        <v>22</v>
-      </c>
-      <c r="I4" t="s">
-        <v>24</v>
-      </c>
-      <c r="J4" t="s">
-        <v>24</v>
-      </c>
-      <c r="K4" t="s">
-        <v>24</v>
-      </c>
-      <c r="L4" t="s">
-        <v>24</v>
-      </c>
-      <c r="M4" t="s">
-        <v>24</v>
-      </c>
-      <c r="N4" t="s">
-        <v>24</v>
-      </c>
-      <c r="O4" t="s">
-        <v>24</v>
-      </c>
-      <c r="P4" t="s">
-        <v>24</v>
-      </c>
-      <c r="Q4" t="s">
-        <v>24</v>
-      </c>
-      <c r="R4" t="s">
-        <v>24</v>
-      </c>
-      <c r="S4" t="s">
-        <v>24</v>
-      </c>
-      <c r="T4" t="s">
-        <v>24</v>
-      </c>
-      <c r="U4" t="s">
-        <v>24</v>
-      </c>
-      <c r="V4" t="s">
-        <v>24</v>
-      </c>
-    </row>
-    <row r="5" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A5" t="s">
-        <v>27</v>
       </c>
       <c r="B5">
         <v>2</v>
@@ -803,336 +853,473 @@
         <v>3</v>
       </c>
       <c r="D5">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="E5">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="F5">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="G5">
-        <v>3</v>
-      </c>
-      <c r="H5" t="s">
+        <v>7</v>
+      </c>
+      <c r="H5">
+        <v>8</v>
+      </c>
+      <c r="I5">
+        <v>9</v>
+      </c>
+      <c r="J5">
+        <v>10</v>
+      </c>
+      <c r="K5">
+        <v>11</v>
+      </c>
+      <c r="L5">
+        <v>12</v>
+      </c>
+      <c r="M5">
+        <v>13</v>
+      </c>
+      <c r="N5">
+        <v>14</v>
+      </c>
+      <c r="O5">
+        <v>15</v>
+      </c>
+      <c r="P5">
+        <v>16</v>
+      </c>
+      <c r="Q5">
+        <v>17</v>
+      </c>
+      <c r="R5">
+        <v>18</v>
+      </c>
+      <c r="S5">
+        <v>19</v>
+      </c>
+      <c r="T5">
+        <v>20</v>
+      </c>
+      <c r="U5">
+        <v>21</v>
+      </c>
+      <c r="V5">
         <v>22</v>
       </c>
-      <c r="I5">
-        <v>3</v>
-      </c>
-      <c r="J5">
-        <v>3</v>
-      </c>
-      <c r="K5">
-        <v>3</v>
-      </c>
-      <c r="L5">
-        <v>3</v>
-      </c>
-      <c r="M5">
-        <v>3</v>
-      </c>
-      <c r="N5">
-        <v>3</v>
-      </c>
-      <c r="O5">
-        <v>3</v>
-      </c>
-      <c r="P5">
-        <v>3</v>
-      </c>
-      <c r="Q5">
-        <v>3</v>
-      </c>
-      <c r="R5">
-        <v>3</v>
-      </c>
-      <c r="S5">
-        <v>3</v>
-      </c>
-      <c r="T5">
-        <v>3</v>
-      </c>
-      <c r="U5">
-        <v>2</v>
-      </c>
-      <c r="V5">
-        <v>2</v>
-      </c>
     </row>
-    <row r="6" spans="1:22" x14ac:dyDescent="0.2">
+    <row r="6" spans="1:22" x14ac:dyDescent="0.55000000000000004">
       <c r="A6" t="s">
+        <v>26</v>
+      </c>
+      <c r="B6" t="s">
+        <v>27</v>
+      </c>
+      <c r="C6" t="s">
+        <v>27</v>
+      </c>
+      <c r="D6" t="s">
+        <v>27</v>
+      </c>
+      <c r="E6" t="s">
+        <v>27</v>
+      </c>
+      <c r="F6" t="s">
+        <v>27</v>
+      </c>
+      <c r="G6" t="s">
+        <v>27</v>
+      </c>
+      <c r="H6" t="s">
+        <v>27</v>
+      </c>
+      <c r="I6" t="s">
+        <v>27</v>
+      </c>
+      <c r="J6" t="s">
+        <v>27</v>
+      </c>
+      <c r="K6" t="s">
+        <v>27</v>
+      </c>
+      <c r="L6" t="s">
+        <v>27</v>
+      </c>
+      <c r="M6" t="s">
+        <v>27</v>
+      </c>
+      <c r="N6" t="s">
+        <v>27</v>
+      </c>
+      <c r="O6" t="s">
+        <v>27</v>
+      </c>
+      <c r="P6" t="s">
+        <v>27</v>
+      </c>
+      <c r="Q6" t="s">
+        <v>27</v>
+      </c>
+      <c r="R6" t="s">
+        <v>27</v>
+      </c>
+      <c r="S6" t="s">
+        <v>27</v>
+      </c>
+      <c r="T6" t="s">
+        <v>27</v>
+      </c>
+      <c r="U6" t="s">
+        <v>27</v>
+      </c>
+      <c r="V6" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="7" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A7" t="s">
         <v>28</v>
       </c>
-      <c r="B6" t="s">
+      <c r="B7">
+        <v>48</v>
+      </c>
+      <c r="C7">
+        <v>49</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
+      </c>
+      <c r="E7">
+        <v>51</v>
+      </c>
+      <c r="F7">
+        <v>52</v>
+      </c>
+      <c r="G7">
+        <v>53</v>
+      </c>
+      <c r="H7">
+        <v>54</v>
+      </c>
+      <c r="I7">
+        <v>55</v>
+      </c>
+      <c r="J7">
+        <v>56</v>
+      </c>
+      <c r="K7">
+        <v>57</v>
+      </c>
+      <c r="L7">
+        <v>58</v>
+      </c>
+      <c r="M7">
+        <v>59</v>
+      </c>
+      <c r="N7">
+        <v>60</v>
+      </c>
+      <c r="O7">
+        <v>61</v>
+      </c>
+      <c r="P7">
+        <v>62</v>
+      </c>
+      <c r="Q7">
+        <v>63</v>
+      </c>
+      <c r="R7">
+        <v>64</v>
+      </c>
+      <c r="S7">
+        <v>65</v>
+      </c>
+      <c r="T7">
+        <v>66</v>
+      </c>
+      <c r="U7">
+        <v>67</v>
+      </c>
+      <c r="V7">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="8" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A8" t="s">
         <v>29</v>
       </c>
-      <c r="C6" t="s">
-        <v>29</v>
-      </c>
-      <c r="D6" t="s">
-        <v>30</v>
-      </c>
-      <c r="E6" t="s">
-        <v>29</v>
-      </c>
-      <c r="F6" t="s">
-        <v>29</v>
-      </c>
-      <c r="G6" t="s">
-        <v>29</v>
-      </c>
-      <c r="H6" t="s">
-        <v>29</v>
-      </c>
-      <c r="I6" t="s">
-        <v>29</v>
-      </c>
-      <c r="J6" t="s">
-        <v>29</v>
-      </c>
-      <c r="K6" t="s">
-        <v>29</v>
-      </c>
-      <c r="L6" t="s">
-        <v>29</v>
-      </c>
-      <c r="M6" t="s">
-        <v>29</v>
-      </c>
-      <c r="N6" t="s">
-        <v>29</v>
-      </c>
-      <c r="O6" t="s">
-        <v>29</v>
-      </c>
-      <c r="P6" t="s">
-        <v>29</v>
-      </c>
-      <c r="Q6" t="s">
-        <v>29</v>
-      </c>
-      <c r="R6" t="s">
-        <v>29</v>
-      </c>
-      <c r="S6" t="s">
-        <v>29</v>
-      </c>
-      <c r="T6" t="s">
-        <v>29</v>
-      </c>
-      <c r="U6" t="s">
-        <v>29</v>
-      </c>
-      <c r="V6" t="s">
-        <v>29</v>
+      <c r="B8" t="s">
+        <v>30</v>
+      </c>
+      <c r="C8" t="s">
+        <v>30</v>
+      </c>
+      <c r="D8" t="s">
+        <v>30</v>
+      </c>
+      <c r="E8" t="s">
+        <v>30</v>
+      </c>
+      <c r="F8" t="s">
+        <v>30</v>
+      </c>
+      <c r="G8" t="s">
+        <v>30</v>
+      </c>
+      <c r="H8" t="s">
+        <v>30</v>
+      </c>
+      <c r="I8" t="s">
+        <v>30</v>
+      </c>
+      <c r="J8" t="s">
+        <v>30</v>
+      </c>
+      <c r="K8" t="s">
+        <v>30</v>
+      </c>
+      <c r="L8" t="s">
+        <v>30</v>
+      </c>
+      <c r="M8" t="s">
+        <v>30</v>
+      </c>
+      <c r="N8" t="s">
+        <v>30</v>
+      </c>
+      <c r="O8" t="s">
+        <v>30</v>
+      </c>
+      <c r="P8" t="s">
+        <v>30</v>
+      </c>
+      <c r="Q8" t="s">
+        <v>30</v>
+      </c>
+      <c r="R8" t="s">
+        <v>30</v>
+      </c>
+      <c r="S8" t="s">
+        <v>30</v>
+      </c>
+      <c r="T8" t="s">
+        <v>30</v>
+      </c>
+      <c r="U8" t="s">
+        <v>30</v>
+      </c>
+      <c r="V8" t="s">
+        <v>30</v>
       </c>
     </row>
-    <row r="7" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A7" t="s">
+    <row r="9" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A9" t="s">
         <v>31</v>
       </c>
-      <c r="B7">
-        <v>48</v>
-      </c>
-      <c r="C7">
-        <v>3</v>
-      </c>
-      <c r="D7">
-        <v>48</v>
-      </c>
-      <c r="E7">
-        <v>24</v>
-      </c>
-      <c r="F7">
-        <v>24</v>
-      </c>
-      <c r="G7">
-        <v>48</v>
-      </c>
-      <c r="H7" t="s">
-        <v>29</v>
-      </c>
-      <c r="I7">
-        <v>24</v>
-      </c>
-      <c r="J7">
-        <v>24</v>
-      </c>
-      <c r="K7">
-        <v>24</v>
-      </c>
-      <c r="L7">
-        <v>48</v>
-      </c>
-      <c r="M7">
-        <v>24</v>
-      </c>
-      <c r="N7">
-        <v>24</v>
-      </c>
-      <c r="O7">
-        <v>24</v>
-      </c>
-      <c r="P7">
-        <v>24</v>
-      </c>
-      <c r="Q7">
-        <v>24</v>
-      </c>
-      <c r="R7">
-        <v>24</v>
-      </c>
-      <c r="S7">
-        <v>24</v>
-      </c>
-      <c r="T7">
-        <v>4</v>
-      </c>
-      <c r="U7">
-        <v>48</v>
-      </c>
-      <c r="V7">
-        <v>48</v>
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>32</v>
+      </c>
+      <c r="D9" t="s">
+        <v>32</v>
+      </c>
+      <c r="E9" t="s">
+        <v>32</v>
+      </c>
+      <c r="F9" t="s">
+        <v>32</v>
+      </c>
+      <c r="G9" t="s">
+        <v>32</v>
+      </c>
+      <c r="H9" t="s">
+        <v>32</v>
+      </c>
+      <c r="I9" t="s">
+        <v>32</v>
+      </c>
+      <c r="J9" t="s">
+        <v>32</v>
+      </c>
+      <c r="K9" t="s">
+        <v>32</v>
+      </c>
+      <c r="L9" t="s">
+        <v>32</v>
+      </c>
+      <c r="M9" t="s">
+        <v>32</v>
+      </c>
+      <c r="N9" t="s">
+        <v>32</v>
+      </c>
+      <c r="O9" t="s">
+        <v>32</v>
+      </c>
+      <c r="P9" t="s">
+        <v>32</v>
+      </c>
+      <c r="Q9" t="s">
+        <v>32</v>
+      </c>
+      <c r="R9" t="s">
+        <v>32</v>
+      </c>
+      <c r="S9" t="s">
+        <v>32</v>
+      </c>
+      <c r="T9" t="s">
+        <v>32</v>
+      </c>
+      <c r="U9" t="s">
+        <v>32</v>
+      </c>
+      <c r="V9" t="s">
+        <v>32</v>
       </c>
     </row>
-    <row r="8" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A8" t="s">
-        <v>32</v>
-      </c>
-      <c r="B8" t="s">
+    <row r="10" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A10" t="s">
         <v>33</v>
       </c>
-      <c r="C8" t="s">
-        <v>33</v>
-      </c>
-      <c r="D8" t="s">
-        <v>33</v>
-      </c>
-      <c r="E8" t="s">
-        <v>33</v>
-      </c>
-      <c r="F8" t="s">
-        <v>33</v>
-      </c>
-      <c r="G8" t="s">
-        <v>33</v>
-      </c>
-      <c r="H8" t="s">
-        <v>22</v>
-      </c>
-      <c r="I8" t="s">
-        <v>33</v>
-      </c>
-      <c r="J8" t="s">
-        <v>33</v>
-      </c>
-      <c r="K8" t="s">
-        <v>33</v>
-      </c>
-      <c r="L8" t="s">
-        <v>33</v>
-      </c>
-      <c r="M8" t="s">
-        <v>33</v>
-      </c>
-      <c r="N8" t="s">
-        <v>33</v>
-      </c>
-      <c r="O8" t="s">
-        <v>33</v>
-      </c>
-      <c r="P8" t="s">
-        <v>33</v>
-      </c>
-      <c r="Q8" t="s">
-        <v>33</v>
-      </c>
-      <c r="R8" t="s">
-        <v>33</v>
-      </c>
-      <c r="S8" t="s">
-        <v>33</v>
-      </c>
-      <c r="T8" t="s">
-        <v>33</v>
-      </c>
-      <c r="U8" t="s">
-        <v>33</v>
-      </c>
-      <c r="V8" t="s">
-        <v>33</v>
+      <c r="B10" t="s">
+        <v>54</v>
+      </c>
+      <c r="C10" t="s">
+        <v>34</v>
+      </c>
+      <c r="D10" t="s">
+        <v>35</v>
+      </c>
+      <c r="E10" t="s">
+        <v>36</v>
+      </c>
+      <c r="F10" t="s">
+        <v>39</v>
+      </c>
+      <c r="G10" t="s">
+        <v>40</v>
+      </c>
+      <c r="H10" t="s">
+        <v>41</v>
+      </c>
+      <c r="I10" t="s">
+        <v>42</v>
+      </c>
+      <c r="J10" t="s">
+        <v>43</v>
+      </c>
+      <c r="K10" t="s">
+        <v>37</v>
+      </c>
+      <c r="L10" t="s">
+        <v>44</v>
+      </c>
+      <c r="M10" t="s">
+        <v>45</v>
+      </c>
+      <c r="N10" t="s">
+        <v>46</v>
+      </c>
+      <c r="O10" t="s">
+        <v>47</v>
+      </c>
+      <c r="P10" t="s">
+        <v>48</v>
+      </c>
+      <c r="Q10" t="s">
+        <v>49</v>
+      </c>
+      <c r="R10" t="s">
+        <v>50</v>
+      </c>
+      <c r="S10" t="s">
+        <v>51</v>
+      </c>
+      <c r="T10" t="s">
+        <v>52</v>
+      </c>
+      <c r="U10" t="s">
+        <v>53</v>
+      </c>
+      <c r="V10" t="s">
+        <v>37</v>
       </c>
     </row>
-    <row r="9" spans="1:22" x14ac:dyDescent="0.2">
-      <c r="A9" t="s">
-        <v>34</v>
-      </c>
-      <c r="B9" t="s">
-        <v>35</v>
-      </c>
-      <c r="C9" t="s">
-        <v>35</v>
-      </c>
-      <c r="D9" t="s">
-        <v>36</v>
-      </c>
-      <c r="E9" t="s">
-        <v>35</v>
-      </c>
-      <c r="F9" t="s">
-        <v>35</v>
-      </c>
-      <c r="G9" t="s">
-        <v>35</v>
-      </c>
-      <c r="H9" t="s">
-        <v>37</v>
-      </c>
-      <c r="I9" t="s">
-        <v>35</v>
-      </c>
-      <c r="J9" t="s">
-        <v>35</v>
-      </c>
-      <c r="K9" t="s">
-        <v>35</v>
-      </c>
-      <c r="L9" t="s">
-        <v>35</v>
-      </c>
-      <c r="M9" t="s">
-        <v>35</v>
-      </c>
-      <c r="N9" t="s">
-        <v>35</v>
-      </c>
-      <c r="O9" t="s">
-        <v>35</v>
-      </c>
-      <c r="P9" t="s">
-        <v>35</v>
-      </c>
-      <c r="Q9" t="s">
-        <v>35</v>
-      </c>
-      <c r="R9" t="s">
-        <v>35</v>
-      </c>
-      <c r="S9" t="s">
-        <v>35</v>
-      </c>
-      <c r="T9" t="s">
-        <v>35</v>
-      </c>
-      <c r="U9" t="s">
-        <v>35</v>
-      </c>
-      <c r="V9" t="s">
-        <v>35</v>
+    <row r="11" spans="1:22" x14ac:dyDescent="0.55000000000000004">
+      <c r="A11" t="s">
+        <v>38</v>
+      </c>
+      <c r="B11" s="2">
+        <v>43101</v>
+      </c>
+      <c r="C11" s="2">
+        <v>43102</v>
+      </c>
+      <c r="D11" s="2">
+        <v>43103</v>
+      </c>
+      <c r="E11" s="2">
+        <v>43104</v>
+      </c>
+      <c r="F11" s="2">
+        <v>43105</v>
+      </c>
+      <c r="G11" s="2">
+        <v>43106</v>
+      </c>
+      <c r="H11" s="2">
+        <v>43107</v>
+      </c>
+      <c r="I11" s="2">
+        <v>43108</v>
+      </c>
+      <c r="J11" s="2">
+        <v>43109</v>
+      </c>
+      <c r="K11" s="2">
+        <v>43110</v>
+      </c>
+      <c r="L11" s="2">
+        <v>43111</v>
+      </c>
+      <c r="M11" s="2">
+        <v>43112</v>
+      </c>
+      <c r="N11" s="2">
+        <v>43113</v>
+      </c>
+      <c r="O11" s="2">
+        <v>43114</v>
+      </c>
+      <c r="P11" s="2">
+        <v>43115</v>
+      </c>
+      <c r="Q11" s="2">
+        <v>43116</v>
+      </c>
+      <c r="R11" s="2">
+        <v>43117</v>
+      </c>
+      <c r="S11" s="2">
+        <v>43118</v>
+      </c>
+      <c r="T11" s="2">
+        <v>43119</v>
+      </c>
+      <c r="U11" s="2">
+        <v>43851</v>
+      </c>
+      <c r="V11" s="2">
+        <v>43121</v>
       </c>
     </row>
   </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>
 </file>
--- a/resources/Chart Setting.xlsx
+++ b/resources/Chart Setting.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\aamna\Documents\AbdulazizNahas\AbdulazizNahas\resources\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F890173C-E987-4A5F-9CF3-0F766A6AC913}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D0146107-74FE-4487-A75A-39531A9BE3D0}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-96" yWindow="-96" windowWidth="23232" windowHeight="12432" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -559,15 +559,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:V11"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="U10" sqref="U10"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B11" sqref="B11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.55000000000000004"/>
   <cols>
     <col min="1" max="1" width="33.9453125" bestFit="1" customWidth="1"/>
-    <col min="2" max="2" width="17.41796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="17.41796875" bestFit="1" customWidth="1"/>
+    <col min="2" max="4" width="17.41796875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:22" x14ac:dyDescent="0.55000000000000004">
